--- a/SWP391-AppDevProject_Weekly Report.xlsx
+++ b/SWP391-AppDevProject_Weekly Report.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E395486-8307-411F-99E4-56AA71C62929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wx" sheetId="1" r:id="rId1"/>
+    <sheet name="W1" sheetId="1" r:id="rId1"/>
+    <sheet name="W2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +47,69 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E0C28268-4CC9-4C89-8BE3-8440FA195A01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{033FDB14-835E-4F31-B8CA-B1C5BD398396}">
       <text>
         <r>
           <rPr>
@@ -76,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -235,12 +299,51 @@
   </si>
   <si>
     <t>Undetermined yet</t>
+  </si>
+  <si>
+    <t>18/09/2022-1/10/2022</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CRUD product and Shopping feature</t>
+  </si>
+  <si>
+    <t>Login, Register, Change Pass</t>
+  </si>
+  <si>
+    <t>Learn how to pay by PayPal</t>
+  </si>
+  <si>
+    <t>Fix and Edit HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall contents as listed in the part 2 of the SRS document, Web Skeleton </t>
+  </si>
+  <si>
+    <t>Overall contents as listed in the part 2 of the Design Document</t>
+  </si>
+  <si>
+    <t>Combine new function and new database</t>
+  </si>
+  <si>
+    <t>Learn more boostrap and html,css,js to make app beauty</t>
+  </si>
+  <si>
+    <t>bind false errors</t>
+  </si>
+  <si>
+    <t>used sandbox PayPal</t>
+  </si>
+  <si>
+    <t>Stabilize and finish it all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +492,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,6 +603,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -532,6 +655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,12 +847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,24 +905,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -948,7 +1088,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -962,7 +1102,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1031,7 +1171,340 @@
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C21 C6 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C21 C6 C8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC96E-1776-4D12-B525-07515A53B34B}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C25:C26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C21 C6 C8" xr:uid="{38380F5E-4992-4276-AF7D-F3E895DAE951}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SWP391-AppDevProject_Weekly Report.xlsx
+++ b/SWP391-AppDevProject_Weekly Report.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E395486-8307-411F-99E4-56AA71C62929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC32EDB-5186-469E-87B4-5FA55D4D210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="1" r:id="rId1"/>
     <sheet name="W2" sheetId="2" r:id="rId2"/>
+    <sheet name="W3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -139,8 +140,70 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{56E5B3AB-D692-41CE-9DB2-E0B1294C0E65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{EC892D59-722D-43A0-B911-4F0B0EF95995}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -338,6 +401,48 @@
   </si>
   <si>
     <t>Stabilize and finish it all</t>
+  </si>
+  <si>
+    <t>2/09/2022-16/10/2022</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>display comment of user</t>
+  </si>
+  <si>
+    <t>Conntact</t>
+  </si>
+  <si>
+    <t>Quang Quý</t>
+  </si>
+  <si>
+    <t>Render data</t>
+  </si>
+  <si>
+    <t>front-end</t>
+  </si>
+  <si>
+    <t>get contact</t>
+  </si>
+  <si>
+    <t>load data on page</t>
+  </si>
+  <si>
+    <t>fix front suitable</t>
+  </si>
+  <si>
+    <t>Not complete</t>
+  </si>
+  <si>
+    <t>Have problem about code</t>
+  </si>
+  <si>
+    <t>Not enough functions</t>
+  </si>
+  <si>
+    <t>Complete all function</t>
   </si>
 </sst>
 </file>
@@ -405,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -465,11 +570,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,6 +644,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,6 +660,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,24 +1069,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1088,7 +1252,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1102,7 +1266,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1184,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC96E-1776-4D12-B525-07515A53B34B}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,24 +1402,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1421,7 +1585,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1435,7 +1599,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1511,4 +1675,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D754A0-94CD-41DB-89AD-2E1295B810FD}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C25:C26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C21 C6 C8" xr:uid="{6F881D30-567C-4469-9473-8EE479D3D853}">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SWP391-AppDevProject_Weekly Report.xlsx
+++ b/SWP391-AppDevProject_Weekly Report.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC32EDB-5186-469E-87B4-5FA55D4D210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722EE75-ED5F-4278-AF65-F8E7FDBE92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="1" r:id="rId1"/>
     <sheet name="W2" sheetId="2" r:id="rId2"/>
     <sheet name="W3" sheetId="3" r:id="rId3"/>
+    <sheet name="W4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -202,8 +204,70 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{CE936112-333D-45A3-BABB-56133726CF56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{E37DDB38-8DCE-427B-93C9-B9B43B2AF65D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="86">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -443,6 +507,24 @@
   </si>
   <si>
     <t>Complete all function</t>
+  </si>
+  <si>
+    <t>17/10/2022-31/10/2022</t>
+  </si>
+  <si>
+    <t>Format and design template</t>
+  </si>
+  <si>
+    <t>Prepare to present and design website</t>
+  </si>
+  <si>
+    <t>Unable to view cart details function</t>
+  </si>
+  <si>
+    <t>Implement the Job Posting function</t>
+  </si>
+  <si>
+    <t>Project status,shopping cart,checkout</t>
   </si>
 </sst>
 </file>
@@ -618,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,6 +723,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,6 +758,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,24 +1166,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1252,7 +1349,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1266,7 +1363,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1349,7 +1446,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="A1:D32"/>
+      <selection activeCell="C38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,24 +1499,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1585,7 +1682,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1599,7 +1696,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1681,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D754A0-94CD-41DB-89AD-2E1295B810FD}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1743,24 +1840,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1947,19 +2044,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2025,4 +2122,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26E50E3-2FDE-4C3E-85CE-F7FA7F97BC7A}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C6 C8" xr:uid="{7D199B28-E6EC-44F5-BC2C-1E660D9C5465}">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SWP391-AppDevProject_Weekly Report.xlsx
+++ b/SWP391-AppDevProject_Weekly Report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722EE75-ED5F-4278-AF65-F8E7FDBE92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0382F3F-919F-4F02-A1CE-282D1CC0EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <sheet name="W4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -267,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="85">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -398,9 +397,6 @@
     <t>web skeleton, code</t>
   </si>
   <si>
-    <t>Quang Minh, Quang Quý</t>
-  </si>
-  <si>
     <t>Web Skeleton is not available</t>
   </si>
   <si>
@@ -479,9 +475,6 @@
     <t>Conntact</t>
   </si>
   <si>
-    <t>Quang Quý</t>
-  </si>
-  <si>
     <t>Render data</t>
   </si>
   <si>
@@ -525,6 +518,9 @@
   </si>
   <si>
     <t>Project status,shopping cart,checkout</t>
+  </si>
+  <si>
+    <t>Quang Minh</t>
   </si>
 </sst>
 </file>
@@ -733,6 +729,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,14 +764,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,7 +1109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,24 +1162,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1254,7 +1250,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
@@ -1268,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>38</v>
@@ -1296,7 +1292,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -1306,7 +1302,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1316,7 +1312,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -1349,7 +1345,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1363,7 +1359,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1390,37 +1386,37 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578CC96E-1776-4D12-B525-07515A53B34B}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1499,24 +1495,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>59</v>
+      <c r="C6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1526,10 +1522,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1556,13 +1552,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,13 +1566,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,13 +1580,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,13 +1594,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1629,7 +1625,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -1639,7 +1635,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1649,7 +1645,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -1682,7 +1678,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1696,7 +1692,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1723,37 +1719,37 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1778,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D754A0-94CD-41DB-89AD-2E1295B810FD}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1840,24 +1836,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>59</v>
+      <c r="C6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1867,10 +1863,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,13 +1930,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,13 +1944,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,7 +1984,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -1998,7 +1994,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -2008,7 +2004,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -2044,19 +2040,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="15" t="s">
+      <c r="A25" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26E50E3-2FDE-4C3E-85CE-F7FA7F97BC7A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2182,22 +2178,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15"/>
+      <c r="C6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2206,8 +2202,8 @@
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>54</v>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="14"/>
     </row>
@@ -2235,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -2247,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -2259,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -2271,10 +2267,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -2300,7 +2296,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -2331,9 +2327,9 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2"/>
@@ -2360,7 +2356,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
